--- a/Task 2/system_requirments.xlsx
+++ b/Task 2/system_requirments.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielchan/Dropbox/Udacity_AWS_Architect/Project_2/Task 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielchan/Dropbox/Udacity_AWS_Architect/Project_2/chandc-AWS_Architect_Performance_Scalability/Task 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E62B5F9-14D0-F94C-8AEA-DFB81E1D5E6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF02B5CC-F5C2-0249-AF75-5BB7C6E13EB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44060" yWindow="8580" windowWidth="23280" windowHeight="16500" xr2:uid="{E201AA67-3F1E-2945-A3CE-4CBB23FC2C84}"/>
+    <workbookView xWindow="740" yWindow="4220" windowWidth="23280" windowHeight="16500" xr2:uid="{E201AA67-3F1E-2945-A3CE-4CBB23FC2C84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -53,15 +53,6 @@
     <t>Calls/sec</t>
   </si>
   <si>
-    <t>Size of Satic Content (TB)</t>
-  </si>
-  <si>
-    <t>MB/sec (among client, app &amp; DB) MB/sec</t>
-  </si>
-  <si>
-    <t>MB/sec (among client, CloudFront and S3) MB/sec</t>
-  </si>
-  <si>
     <t>TB/Month</t>
   </si>
   <si>
@@ -69,6 +60,15 @@
   </si>
   <si>
     <t>unique DNS calls/month, milllions</t>
+  </si>
+  <si>
+    <t>Size of Static Content (TB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MB/sec (transfer among client, app &amp; DB) </t>
+  </si>
+  <si>
+    <t>MB/sec (transfer among client, CloudFront and S3)</t>
   </si>
 </sst>
 </file>
@@ -77,7 +77,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -155,10 +155,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -170,7 +170,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -494,7 +494,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
@@ -503,7 +503,7 @@
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.6640625" style="11" customWidth="1"/>
     <col min="8" max="9" width="28.6640625" style="1" customWidth="1"/>
@@ -575,7 +575,7 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F6" s="1">
         <v>1000</v>
@@ -599,7 +599,7 @@
         <v>720000000</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.3">
@@ -608,7 +608,7 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F8" s="8">
         <f>F7*(1-E2)*C2</f>
@@ -619,16 +619,16 @@
         <v>720</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F9" s="8">
         <f>F7*C2*E2</f>
@@ -639,7 +639,7 @@
         <v>1440</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="42" x14ac:dyDescent="0.3">
@@ -648,7 +648,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F10" s="1">
         <v>10</v>
@@ -657,7 +657,7 @@
         <v>10</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
